--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>2,3</t>
+  </si>
+  <si>
+    <t>28/30</t>
   </si>
 </sst>
 </file>
@@ -589,7 +592,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -609,7 +612,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
@@ -924,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1012,7 @@
       <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="5">
         <v>1</v>
       </c>
       <c r="G4" s="2">
@@ -1047,7 +1049,7 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="5">
         <v>2</v>
       </c>
       <c r="G5" s="2">
@@ -1080,7 +1082,7 @@
       <c r="E6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="2">
@@ -1109,7 +1111,7 @@
       <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="5">
         <v>2</v>
       </c>
       <c r="G7" s="2">
@@ -1144,7 +1146,7 @@
       <c r="E8" s="2">
         <v>5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>2</v>
       </c>
       <c r="I8" s="5"/>
@@ -1174,7 +1176,7 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>7</v>
       </c>
       <c r="I9" s="4"/>
@@ -1189,7 +1191,7 @@
       <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="5">
         <v>10</v>
       </c>
       <c r="I10" s="10"/>
@@ -1204,6 +1206,7 @@
       <c r="D11" s="2">
         <v>5</v>
       </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -1229,6 +1232,9 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -368,13 +368,16 @@
   </si>
   <si>
     <t>28/30</t>
+  </si>
+  <si>
+    <t>НАПИСАТИ БАСЮКУ ПРО ТЕМУ БАКАЛАВРСЬКОЇ І ЩО ПЛАНУЮ ДОРОБИТИ!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +478,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -592,7 +604,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -612,6 +624,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
@@ -927,7 +940,7 @@
   <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,6 +1228,9 @@
       <c r="D12" s="2">
         <v>5</v>
       </c>
+      <c r="H12" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13">
@@ -1223,6 +1239,7 @@
       <c r="D13" s="2">
         <v>5</v>
       </c>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14">

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>НАПИСАТИ БАСЮКУ ПРО ТЕМУ БАКАЛАВРСЬКОЇ І ЩО ПЛАНУЮ ДОРОБИТИ!!!</t>
+  </si>
+  <si>
+    <t>Практика</t>
+  </si>
+  <si>
+    <t>Розразункова</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -625,6 +631,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
@@ -940,7 +947,7 @@
   <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <v>8</v>
@@ -1022,7 +1029,7 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>5</v>
       </c>
       <c r="F4" s="5">
@@ -1059,7 +1066,7 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>5</v>
       </c>
       <c r="F5" s="5">
@@ -1092,7 +1099,7 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="F6" s="5">
@@ -1186,13 +1193,15 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>5</v>
       </c>
       <c r="F9" s="5">
         <v>7</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -1204,6 +1213,9 @@
       <c r="D10" s="2">
         <v>5</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" s="5">
         <v>10</v>
       </c>
@@ -1219,7 +1231,9 @@
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12">
@@ -1228,9 +1242,6 @@
       <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="13" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13">
@@ -1245,6 +1256,9 @@
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="I14" s="14" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -1252,6 +1266,9 @@
       </c>
       <c r="F15" t="s">
         <v>29</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -51,10 +51,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -79,7 +78,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -105,7 +104,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -131,7 +130,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -156,7 +155,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -178,10 +177,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -206,7 +204,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -232,7 +230,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -258,7 +256,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -634,15 +632,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
-    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
-    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
-    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
-    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
-    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -658,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -947,7 +945,7 @@
   <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,7 +1126,7 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>5</v>
       </c>
       <c r="F7" s="5">

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>13</v>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" t="s">
@@ -1103,8 +1103,8 @@
       <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="2">
-        <v>9</v>
+      <c r="G6" s="3">
+        <v>5</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" t="s">
@@ -1127,13 +1127,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="5">
         <v>2</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" t="s">
@@ -1162,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5">
         <v>2</v>
@@ -1192,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" s="5">
         <v>7</v>
@@ -1280,7 +1277,7 @@
       </c>
       <c r="E16">
         <f t="shared" ref="E16:G16" si="0">SUM(E4:E15)</f>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -1288,7 +1285,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -632,15 +632,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
-    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
-    <cellStyle name="Bad" xfId="6" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
+    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
+    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
+    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
+    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
+    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -656,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -945,7 +945,7 @@
   <dimension ref="B1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1033,7 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -1070,7 +1070,7 @@
       <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -942,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R16"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,13 +1027,13 @@
       <c r="D4" s="2">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>5</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -1064,13 +1064,13 @@
       <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
@@ -1097,13 +1097,13 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>5</v>
       </c>
       <c r="I6" s="6"/>
@@ -1126,7 +1126,7 @@
       <c r="D7" s="2">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>8</v>
       </c>
       <c r="F7" s="5">
@@ -1188,7 +1188,7 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>8</v>
       </c>
       <c r="F9" s="5">
@@ -1262,30 +1262,11 @@
       <c r="F15" t="s">
         <v>29</v>
       </c>
+      <c r="G15">
+        <v>-4</v>
+      </c>
       <c r="I15" s="14" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <f>SUM(C4:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>SUM(D4:D15)</f>
-        <v>50</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ref="E16:G16" si="0">SUM(E4:E15)</f>
-        <v>39</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,10 +1024,10 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
         <v>5</v>
       </c>
       <c r="F4" s="5">
@@ -1061,10 +1061,10 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
         <v>5</v>
       </c>
       <c r="F5" s="5">
@@ -1155,7 +1155,7 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>5</v>
       </c>
       <c r="E8" s="2">
@@ -1205,7 +1205,7 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1234,7 +1234,7 @@
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="13"/>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -945,7 +945,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1024,9 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="3">
         <v>5</v>
       </c>
@@ -1094,7 +1097,7 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="2">
@@ -1185,7 +1188,7 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>5</v>
       </c>
       <c r="E9" s="2">
@@ -1223,7 +1226,7 @@
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,7 +1126,7 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" s="2">
@@ -1191,7 +1191,7 @@
       <c r="D9" s="3">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>8</v>
       </c>
       <c r="F9" s="5">
@@ -1266,7 +1266,7 @@
         <v>29</v>
       </c>
       <c r="G15">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>30</v>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,7 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="F6" s="5">

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1129,7 @@
       <c r="D7" s="3">
         <v>5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>8</v>
       </c>
       <c r="F7" s="5">

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>Розразункова</t>
+  </si>
+  <si>
+    <t>Розр</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -630,6 +633,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
@@ -945,7 +950,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,8 +1029,8 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
+      <c r="C4" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="D4" s="3">
         <v>5</v>
@@ -1211,8 +1216,8 @@
       <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>32</v>
+      <c r="E10" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="F10" s="5">
         <v>10</v>
@@ -1229,8 +1234,8 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>32</v>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -374,10 +374,10 @@
     <t>Практика</t>
   </si>
   <si>
-    <t>Розразункова</t>
-  </si>
-  <si>
-    <t>Розр</t>
+    <t>Розрахункова</t>
+  </si>
+  <si>
+    <t>AVG +-2</t>
   </si>
 </sst>
 </file>
@@ -611,12 +611,11 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="8" applyBorder="1"/>
@@ -950,7 +949,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,19 +970,19 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>10</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>2</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>8</v>
       </c>
       <c r="M2" t="s">
@@ -991,10 +990,10 @@
       </c>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1009,7 +1008,7 @@
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1029,22 +1028,22 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
         <v>5</v>
       </c>
       <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
-        <v>5</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="J4" t="s">
@@ -1053,32 +1052,32 @@
       <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12" t="s">
+      <c r="O4" s="11"/>
+      <c r="P4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="Q4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>5</v>
       </c>
       <c r="E5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>5</v>
       </c>
       <c r="I5" s="2"/>
@@ -1088,13 +1087,13 @@
       <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1102,42 +1101,42 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5"/>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
       <c r="E7" s="3">
         <v>8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="I7" s="3"/>
@@ -1147,15 +1146,15 @@
       <c r="M7" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12" t="s">
+      <c r="N7" s="11"/>
+      <c r="O7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="R7" s="11" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1163,29 +1162,29 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>8</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="4"/>
       <c r="J8" t="s">
         <v>10</v>
       </c>
       <c r="M8" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12" t="s">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1193,20 +1192,20 @@
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>7</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
         <v>32</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1216,13 +1215,13 @@
       <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
         <v>10</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="9"/>
       <c r="J10" t="s">
         <v>12</v>
       </c>
@@ -1234,8 +1233,8 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>33</v>
+      <c r="F11" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1253,13 +1252,13 @@
       <c r="D13" s="3">
         <v>5</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1267,13 +1266,16 @@
       <c r="B15">
         <v>12</v>
       </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" t="s">
         <v>29</v>
       </c>
       <c r="G15">
         <v>4</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -611,7 +611,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -631,7 +631,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -949,7 +948,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1027,7 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4">
@@ -1201,7 +1200,7 @@
       <c r="F9" s="4">
         <v>7</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="J9" t="s">
@@ -1215,7 +1214,7 @@
       <c r="D10" s="3">
         <v>5</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="4">
@@ -1233,7 +1232,7 @@
       <c r="D11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1258,7 +1257,7 @@
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1273,9 +1272,9 @@
         <v>29</v>
       </c>
       <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="I15" s="13" t="s">
+        <v>-4</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -377,7 +377,7 @@
     <t>Розрахункова</t>
   </si>
   <si>
-    <t>AVG +-2</t>
+    <t>23/40</t>
   </si>
 </sst>
 </file>
@@ -635,15 +635,15 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
-    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
-    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
-    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
-    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
-    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -948,7 +948,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,7 +1211,7 @@
       <c r="B10">
         <v>7</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>5</v>
       </c>
       <c r="E10" s="14" t="s">
@@ -1225,35 +1225,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>5</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>ЕтБ</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>23/40</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2"/>
@@ -633,6 +636,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
@@ -948,7 +952,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1037,7 @@
       <c r="D4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>5</v>
       </c>
       <c r="F4" s="4">
@@ -1070,7 +1074,7 @@
       <c r="D5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>5</v>
       </c>
       <c r="F5" s="4">
@@ -1103,7 +1107,7 @@
       <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>5</v>
       </c>
       <c r="F6" s="4">
@@ -1132,7 +1136,7 @@
       <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>8</v>
       </c>
       <c r="F7" s="4">
@@ -1164,7 +1168,7 @@
       <c r="D8" s="4">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>8</v>
       </c>
       <c r="F8" s="4">
@@ -1194,7 +1198,7 @@
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>8</v>
       </c>
       <c r="F9" s="4">
@@ -1267,6 +1271,9 @@
       </c>
       <c r="D15" t="s">
         <v>33</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="F15" t="s">
         <v>29</v>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Автор</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Author:</t>
+          <t>Автор:</t>
         </r>
         <r>
           <rPr>
@@ -639,15 +639,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
-    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
-    <cellStyle name="Bad" xfId="6" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
-    <cellStyle name="Good" xfId="4" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
+    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
+    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
+    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
+    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
+    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
+    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -952,7 +952,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,14 +1211,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="4">
@@ -1229,7 +1229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>

--- a/Shandra/Plan.xlsx
+++ b/Shandra/Plan.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Автор</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -155,7 +155,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Автор:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -639,15 +639,15 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="20% – Акцентування6" xfId="8" builtinId="50"/>
-    <cellStyle name="60% – Акцентування5" xfId="5" builtinId="48"/>
-    <cellStyle name="Акцентування4" xfId="7" builtinId="41"/>
-    <cellStyle name="Гарний" xfId="4" builtinId="26"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
-    <cellStyle name="Контрольна клітинка" xfId="2" builtinId="23"/>
-    <cellStyle name="Обчислення" xfId="1" builtinId="22"/>
-    <cellStyle name="Поганий" xfId="6" builtinId="27"/>
-    <cellStyle name="Примітка" xfId="3" builtinId="10"/>
+    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
+    <cellStyle name="Accent4" xfId="7" builtinId="41"/>
+    <cellStyle name="Bad" xfId="6" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -663,7 +663,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -952,7 +952,7 @@
   <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
@@ -1027,11 +1027,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4">
@@ -1269,6 +1269,7 @@
       <c r="B15">
         <v>12</v>
       </c>
+      <c r="C15" s="15"/>
       <c r="D15" t="s">
         <v>33</v>
       </c>
